--- a/JONATHAN LARMOI.xlsx
+++ b/JONATHAN LARMOI.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ASSETFLOW-PC\Desktop\FLORENCE\CLIENTS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="720" yWindow="405" windowWidth="17955" windowHeight="11490" tabRatio="624" firstSheet="10" activeTab="16"/>
   </bookViews>
@@ -25,8 +30,7 @@
     <sheet name="NOVEMBER 21" sheetId="16" r:id="rId16"/>
     <sheet name="DECEMBER 21" sheetId="17" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -507,7 +511,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -850,7 +854,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -885,7 +889,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7754,7 +7758,7 @@
   <dimension ref="A2:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7875,10 +7879,12 @@
         <f t="shared" ref="F7:F19" si="0">C7+D7+E7</f>
         <v>1000</v>
       </c>
-      <c r="G7" s="19"/>
+      <c r="G7" s="19">
+        <v>1000</v>
+      </c>
       <c r="H7" s="17">
         <f t="shared" ref="H7:H19" si="1">F7-G7</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I7" s="15"/>
     </row>
@@ -8047,10 +8053,13 @@
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="G14" s="16"/>
+      <c r="G14" s="16">
+        <f>4000+1000</f>
+        <v>5000</v>
+      </c>
       <c r="H14" s="17">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="I14" s="15"/>
     </row>
@@ -8205,11 +8214,11 @@
       </c>
       <c r="G20" s="16">
         <f>SUM(G6:G19)</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="H20" s="17">
         <f>SUM(H6:H19)</f>
-        <v>38800</v>
+        <v>32800</v>
       </c>
       <c r="I20" s="15">
         <f t="shared" si="2"/>
@@ -8294,7 +8303,7 @@
       </c>
       <c r="F26" s="38">
         <f>G20</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
@@ -8497,7 +8506,7 @@
       </c>
       <c r="F38" s="44">
         <f>F26+F27+F29+F28-G30</f>
-        <v>-14222</v>
+        <v>-8222</v>
       </c>
       <c r="G38" s="44">
         <f>SUM(G32:G37)</f>
@@ -8505,7 +8514,7 @@
       </c>
       <c r="H38" s="44">
         <f>F38-G38</f>
-        <v>-14222</v>
+        <v>-8222</v>
       </c>
       <c r="I38" s="43"/>
     </row>

--- a/JONATHAN LARMOI.xlsx
+++ b/JONATHAN LARMOI.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ASSETFLOW-PC\Desktop\FLORENCE\CLIENTS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="720" yWindow="405" windowWidth="17955" windowHeight="11490" tabRatio="624" firstSheet="10" activeTab="16"/>
   </bookViews>
@@ -31,11 +26,12 @@
     <sheet name="DECEMBER 21" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="159">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -506,18 +502,24 @@
   </si>
   <si>
     <t>FOR THE MONTH OF DECEMBER  2021</t>
+  </si>
+  <si>
+    <t>PAID ON 10/12</t>
+  </si>
+  <si>
+    <t>JULIUS VACCATED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\-#,##0.00"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -636,6 +638,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -697,7 +720,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -793,6 +816,14 @@
     <xf numFmtId="43" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -854,7 +885,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -889,7 +920,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6905,7 +6936,7 @@
   <dimension ref="A2:J40"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7228,17 +7259,15 @@
         <f>'OCTOBER 21'!H15:H28</f>
         <v>2000</v>
       </c>
-      <c r="E15" s="18">
-        <v>2000</v>
-      </c>
+      <c r="E15" s="18"/>
       <c r="F15" s="16">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="17">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="I15" s="15"/>
     </row>
@@ -7366,11 +7395,11 @@
       </c>
       <c r="E20" s="27">
         <f t="shared" si="2"/>
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="F20" s="16">
         <f t="shared" si="2"/>
-        <v>38000</v>
+        <v>36000</v>
       </c>
       <c r="G20" s="16">
         <f>SUM(G6:G19)</f>
@@ -7378,7 +7407,7 @@
       </c>
       <c r="H20" s="17">
         <f>SUM(H6:H19)</f>
-        <v>13800</v>
+        <v>11800</v>
       </c>
       <c r="I20" s="15">
         <f t="shared" si="2"/>
@@ -7454,7 +7483,7 @@
       </c>
       <c r="B26" s="38">
         <f>E20</f>
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
@@ -7534,7 +7563,7 @@
       </c>
       <c r="C30" s="38">
         <f>B30*B26</f>
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="D30" s="26"/>
       <c r="E30" s="26" t="s">
@@ -7545,7 +7574,7 @@
       </c>
       <c r="G30" s="38">
         <f>F30*B26</f>
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="H30" s="26"/>
       <c r="I30" s="3"/>
@@ -7568,7 +7597,7 @@
       <c r="I31" s="34"/>
       <c r="J31" s="49">
         <f>B26-C30</f>
-        <v>22500</v>
+        <v>20700</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -7611,7 +7640,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="49">
         <f>J31-J32</f>
-        <v>22000</v>
+        <v>20200</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -7649,7 +7678,7 @@
       <c r="I35" s="43"/>
       <c r="J35" s="49">
         <f>J33-J34</f>
-        <v>7000</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -7678,7 +7707,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="49">
         <f>J35-J36</f>
-        <v>2000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -7687,7 +7716,7 @@
       </c>
       <c r="B38" s="44">
         <f>B29+B26+B27+B28-C30</f>
-        <v>22000</v>
+        <v>20200</v>
       </c>
       <c r="C38" s="44">
         <f>SUM(C32:C37)</f>
@@ -7695,14 +7724,14 @@
       </c>
       <c r="D38" s="44">
         <f>B38-C38</f>
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="E38" s="37" t="s">
         <v>26</v>
       </c>
       <c r="F38" s="44">
         <f>F26+F27+F29+F28-G30</f>
-        <v>8278</v>
+        <v>8478</v>
       </c>
       <c r="G38" s="44">
         <f>SUM(G32:G37)</f>
@@ -7710,7 +7739,7 @@
       </c>
       <c r="H38" s="44">
         <f>F38-G38</f>
-        <v>-11722</v>
+        <v>-11522</v>
       </c>
       <c r="I38" s="43"/>
     </row>
@@ -7758,7 +7787,7 @@
   <dimension ref="A2:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7767,7 +7796,7 @@
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>31</v>
@@ -7780,7 +7809,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -7792,7 +7821,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
         <v>156</v>
@@ -7805,7 +7834,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
@@ -7834,7 +7863,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>136</v>
       </c>
@@ -7860,7 +7889,7 @@
       </c>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>70</v>
       </c>
@@ -7888,7 +7917,7 @@
       </c>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>51</v>
       </c>
@@ -7907,14 +7936,16 @@
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="G8" s="19"/>
+      <c r="G8" s="19">
+        <v>2000</v>
+      </c>
       <c r="H8" s="17">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>129</v>
       </c>
@@ -7922,25 +7953,23 @@
         <v>39</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="15">
+      <c r="D9" s="56">
         <f>'NOVEMBER 21'!H9</f>
         <v>4800</v>
       </c>
-      <c r="E9" s="18">
-        <v>2000</v>
-      </c>
+      <c r="E9" s="18"/>
       <c r="F9" s="16">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>4800</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="17">
         <f t="shared" si="1"/>
-        <v>6800</v>
+        <v>4800</v>
       </c>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>100</v>
       </c>
@@ -7959,14 +7988,16 @@
         <f>C10+D10+E10</f>
         <v>2000</v>
       </c>
-      <c r="G10" s="16"/>
+      <c r="G10" s="16">
+        <v>1700</v>
+      </c>
       <c r="H10" s="17">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="I10" s="15"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>154</v>
       </c>
@@ -7992,7 +8023,7 @@
       </c>
       <c r="I11" s="15"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>62</v>
       </c>
@@ -8013,7 +8044,7 @@
       </c>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
         <v>62</v>
       </c>
@@ -8034,7 +8065,7 @@
       </c>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>70</v>
       </c>
@@ -8063,33 +8094,34 @@
       </c>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="15">
         <f>'NOVEMBER 21'!H15</f>
-        <v>4000</v>
-      </c>
-      <c r="E15" s="18">
-        <v>2000</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="E15" s="18"/>
       <c r="F15" s="16">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="17">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>153</v>
       </c>
@@ -8158,10 +8190,12 @@
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="G18" s="16"/>
+      <c r="G18" s="16">
+        <v>2000</v>
+      </c>
       <c r="H18" s="17">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I18" s="15"/>
     </row>
@@ -8202,23 +8236,23 @@
       </c>
       <c r="D20" s="15">
         <f>SUM(D6:D19)</f>
-        <v>13800</v>
+        <v>11800</v>
       </c>
       <c r="E20" s="27">
         <f t="shared" si="2"/>
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="F20" s="16">
         <f t="shared" si="2"/>
-        <v>38800</v>
+        <v>32800</v>
       </c>
       <c r="G20" s="16">
         <f>SUM(G6:G19)</f>
-        <v>6000</v>
+        <v>11700</v>
       </c>
       <c r="H20" s="17">
         <f>SUM(H6:H19)</f>
-        <v>32800</v>
+        <v>21100</v>
       </c>
       <c r="I20" s="15">
         <f t="shared" si="2"/>
@@ -8294,7 +8328,7 @@
       </c>
       <c r="B26" s="38">
         <f>E20</f>
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
@@ -8303,7 +8337,7 @@
       </c>
       <c r="F26" s="38">
         <f>G20</f>
-        <v>6000</v>
+        <v>11700</v>
       </c>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
@@ -8315,7 +8349,7 @@
       </c>
       <c r="B27" s="38">
         <f>'NOVEMBER 21'!D38</f>
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -8324,7 +8358,7 @@
       </c>
       <c r="F27" s="38">
         <f>'NOVEMBER 21'!H38</f>
-        <v>-11722</v>
+        <v>-11522</v>
       </c>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
@@ -8375,7 +8409,7 @@
       </c>
       <c r="C30" s="38">
         <f>B30*B26</f>
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="D30" s="26"/>
       <c r="E30" s="26" t="s">
@@ -8386,7 +8420,7 @@
       </c>
       <c r="G30" s="38">
         <f>F30*B26</f>
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="H30" s="26"/>
       <c r="I30" s="3"/>
@@ -8407,10 +8441,7 @@
       <c r="G31" s="26"/>
       <c r="H31" s="26"/>
       <c r="I31" s="34"/>
-      <c r="J31" s="49">
-        <f>B26-C30</f>
-        <v>22500</v>
-      </c>
+      <c r="J31" s="49"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
@@ -8432,17 +8463,31 @@
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
+      <c r="A33" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33">
+        <v>12000</v>
+      </c>
       <c r="D33" s="42"/>
-      <c r="E33" s="40"/>
+      <c r="E33" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="G33">
+        <v>12000</v>
+      </c>
       <c r="H33" s="26"/>
       <c r="I33" s="3"/>
       <c r="J33" s="49"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
+      <c r="A34" s="40" t="s">
+        <v>158</v>
+      </c>
       <c r="B34" s="39"/>
-      <c r="C34" s="26"/>
+      <c r="C34" s="26">
+        <v>2000</v>
+      </c>
       <c r="D34" s="26"/>
       <c r="E34" s="40"/>
       <c r="F34" s="39"/>
@@ -8491,30 +8536,30 @@
       </c>
       <c r="B38" s="44">
         <f>B29+B26+B27+B28-C30</f>
-        <v>24500</v>
+        <v>19100</v>
       </c>
       <c r="C38" s="44">
         <f>SUM(C32:C37)</f>
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="D38" s="44">
         <f>B38-C38</f>
-        <v>24500</v>
+        <v>5100</v>
       </c>
       <c r="E38" s="37" t="s">
         <v>26</v>
       </c>
       <c r="F38" s="44">
         <f>F26+F27+F29+F28-G30</f>
-        <v>-8222</v>
+        <v>-1922</v>
       </c>
       <c r="G38" s="44">
         <f>SUM(G32:G37)</f>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="H38" s="44">
         <f>F38-G38</f>
-        <v>-8222</v>
+        <v>-13922</v>
       </c>
       <c r="I38" s="43"/>
     </row>
